--- a/test-param/testParam.xlsx
+++ b/test-param/testParam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="620" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="540" yWindow="720" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="tc01" sheetId="1" r:id="rId1"/>
@@ -28,21 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lixuejun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lishangqing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duxingye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,20 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例</t>
-    <rPh sb="0" eb="1">
-      <t>yong'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sbuID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fromDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,27 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-02-02 02:03:04</t>
-  </si>
-  <si>
-    <t>2020-02-02 02:03:05</t>
-  </si>
-  <si>
     <t>2020-02-02 02:03:06</t>
-  </si>
-  <si>
-    <t>2020-02-02 02:03:07</t>
-  </si>
-  <si>
-    <t>2020-02-02 02:03:08</t>
-  </si>
-  <si>
-    <t>checkResultCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkResultData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
@@ -132,13 +82,6 @@
     <t>通过</t>
     <rPh sb="0" eb="1">
       <t>tong'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不通过</t>
-    <rPh sb="0" eb="1">
-      <t>bu'tong'guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,41 +100,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不通过</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkReponseCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkResponseData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlResultColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服务的删除用例功能接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * from tp_testcase where case_id = 'tc_003'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
     <rPh sb="0" eb="1">
-      <t>bu</t>
+      <t>bao'han</t>
     </rPh>
-    <rPh sb="1" eb="2">
-      <t>tong'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkResponseData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkReponseCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SqlResultColumn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -238,8 +210,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,10 +256,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,92 +542,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -652,34 +638,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -687,41 +675,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test-param/testParam.xlsx
+++ b/test-param/testParam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="720" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="700" yWindow="600" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="tc01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,49 @@
     <rPh sb="0" eb="1">
       <t>bao'han</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <rPh sb="0" eb="1">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对的</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000055</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,30 +645,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/test-param/testParam.xlsx
+++ b/test-param/testParam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="600" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="tc01" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,22 @@
   </si>
   <si>
     <t>000055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckResponseDataAssertType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkSqlResultAssertType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkSqlResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,15 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -607,19 +628,28 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,20 +662,20 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -658,20 +688,20 @@
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -684,16 +714,16 @@
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/test-param/testParam.xlsx
+++ b/test-param/testParam.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="1960" yWindow="820" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
-    <sheet name="tc01" sheetId="1" r:id="rId1"/>
-    <sheet name="tc02" sheetId="2" r:id="rId2"/>
+    <sheet name="templete" sheetId="3" r:id="rId1"/>
+    <sheet name="tc01" sheetId="4" r:id="rId2"/>
+    <sheet name="tc02" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,93 +137,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试服务的删除用例功能接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * from tp_testcase where case_id = 'tc_003'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lisq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含</t>
+    <t>checkSqlResultAssertType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkSqlResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相等</t>
     <rPh sb="0" eb="1">
-      <t>bao'han</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yesy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
+      <t>xiang'deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望值</t>
     <rPh sb="0" eb="1">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的</t>
+      <t>qi'wang'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
     <rPh sb="0" eb="1">
-      <t>shi</t>
+      <t>mei'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkResponseDataAssertType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述的</t>
+    <rPh sb="0" eb="1">
+      <t>miao'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了定义标准，多接口情况考虑，第一条caseParam一般为正常参数输入流程</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>d</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对的</t>
-    <rPh sb="0" eb="1">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>d</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckResponseDataAssertType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkSqlResultAssertType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkSqlResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseDesc</t>
+      <t>l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'zhun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qin'kuang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di'yi'tiao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zheng'chang'liu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>liu'cheng</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,17 +616,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -628,13 +724,13 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>21</v>
@@ -643,10 +739,10 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -662,69 +758,61 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>126</v>
+      </c>
+      <c r="E3">
+        <v>127</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>129</v>
+      </c>
+      <c r="H3">
+        <v>130</v>
+      </c>
+      <c r="I3">
+        <v>131</v>
+      </c>
+      <c r="J3">
+        <v>132</v>
+      </c>
+      <c r="K3">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/test-param/testParam.xlsx
+++ b/test-param/testParam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="820" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="3" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/test-param/testParam.xlsx
+++ b/test-param/testParam.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Desktop/OldFace/study/api-auto-test/test-param/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace\person\api-auto-test\test-param\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="25600" windowHeight="14180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="templete" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,14 +238,18 @@
     <rPh sb="36" eb="37">
       <t>liu'cheng</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个地方我进行了修改-windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -348,6 +352,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -618,11 +625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -632,7 +639,7 @@
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -655,37 +662,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" s="2" customFormat="1"/>
+    <row r="4" spans="1:7" s="2" customFormat="1"/>
+    <row r="5" spans="1:7" s="2" customFormat="1"/>
+    <row r="6" spans="1:7" s="2" customFormat="1"/>
+    <row r="7" spans="1:7" s="2" customFormat="1"/>
+    <row r="8" spans="1:7" s="2" customFormat="1"/>
+    <row r="9" spans="1:7" s="2" customFormat="1"/>
+    <row r="10" spans="1:7" s="2" customFormat="1"/>
+    <row r="11" spans="1:7" s="2" customFormat="1"/>
+    <row r="12" spans="1:7" s="2" customFormat="1"/>
+    <row r="13" spans="1:7" s="2" customFormat="1"/>
+    <row r="14" spans="1:7" s="2" customFormat="1"/>
+    <row r="15" spans="1:7" s="2" customFormat="1"/>
+    <row r="16" spans="1:7" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1"/>
+    <row r="18" s="2" customFormat="1"/>
+    <row r="19" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1"/>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="27" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -700,7 +707,7 @@
       <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -710,7 +717,7 @@
     <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -745,7 +752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -780,7 +787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>123</v>
       </c>
@@ -823,13 +830,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -837,7 +844,7 @@
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -885,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,6 +904,11 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
